--- a/Data_Extract_From_World_Development_Indicators.xlsx
+++ b/Data_Extract_From_World_Development_Indicators.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="SpreadsheetGear 5.1.1.178"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kheir\Desktop\TestGit\FirstRepo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Definition and Source" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="40001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>2008 [YR2008]</t>
   </si>
@@ -102,138 +107,19 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>passengers carried</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,6 +152,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -553,120 +449,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row>
-      <c t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c t="s">
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c t="s">
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row>
-      <c t="s">
-        <v>27</v>
-      </c>
-      <c t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c>
+      <c r="E2">
         <v>464574016</v>
       </c>
-      <c>
+      <c r="F2">
         <v>665327414</v>
       </c>
-      <c>
+      <c r="G2">
         <v>744302310</v>
       </c>
-      <c>
+      <c r="H2">
         <v>701779551</v>
       </c>
-      <c>
+      <c r="I2">
         <v>679423408</v>
       </c>
-      <c>
+      <c r="J2">
         <v>720497000</v>
       </c>
-      <c>
+      <c r="K2">
         <v>730796000</v>
       </c>
-      <c>
+      <c r="L2">
         <v>736699000</v>
       </c>
-      <c>
+      <c r="M2">
         <v>743171000</v>
       </c>
-      <c>
+      <c r="N2">
         <v>762710000</v>
       </c>
-      <c>
+      <c r="O2">
         <v>798230000</v>
       </c>
-      <c t="s">
+      <c r="P2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -676,42 +577,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.8125" customWidth="1"/>
-    <col min="2" max="4" width="50.8125" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="4" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row>
-      <c s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row>
-      <c s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
